--- a/Planilla excel H.N S.A.-/JUNIO 2016.-/ALCOSUR.-.xlsx
+++ b/Planilla excel H.N S.A.-/JUNIO 2016.-/ALCOSUR.-.xlsx
@@ -552,10 +552,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="K:P"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2062,13 +2062,6 @@
         <v>2449936000</v>
       </c>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A47:I47"/>
